--- a/Data_set.xlsx
+++ b/Data_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteofscience-my.sharepoint.com/personal/puneethak_iisc_ac_in/Documents/Up skilling/Artificial Intelligence/Deep Learning/Deep_Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteofscience-my.sharepoint.com/personal/puneethak_iisc_ac_in/Documents/MTech Course Material/3rd Semester/ML for CPS/Project1/DL_for_Diabetes_Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{9CEFE50F-28F3-4A67-9AC9-7C5BA044F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFC3DA95-C211-4F47-AF86-836C3A9322EC}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{9CEFE50F-28F3-4A67-9AC9-7C5BA044F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEF8A0E-F277-4AF2-9865-71749AA529EB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B06C937-EE01-4345-9937-9CA81C1D5711}"/>
   </bookViews>
@@ -174,10 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E65D61-ACC1-4CE6-8B1D-A19DA4C79B69}">
   <dimension ref="A1:Q769"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -514,6 +510,10 @@
     <col min="7" max="7" width="18.21875" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.200000000000003" customHeight="1">
